--- a/conf/excel/C_SubwayLine.xlsx
+++ b/conf/excel/C_SubwayLine.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\配置文件相关\Final-newCA-config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\File\长期文件\学习资料\综合学习资料\tencent\配置文件相关\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1FEC73-FBEA-4ABA-9A72-D6A4C02B9DEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12390"/>
+    <workbookView xWindow="960" yWindow="3585" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C_SubwayLine.conf" sheetId="1" r:id="rId1"/>
@@ -129,9 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>status=1</t>
-  </si>
-  <si>
     <t>catalog=050202</t>
   </si>
   <si>
@@ -143,13 +141,17 @@
   </si>
   <si>
     <t>在建地铁线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status=1 || status=2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -509,11 +511,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -550,22 +552,22 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
